--- a/test_data_2014_2015.xlsx
+++ b/test_data_2014_2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="732">
   <si>
     <t>Student ID</t>
   </si>
@@ -91,7 +91,7 @@
     <t>201400076</t>
   </si>
   <si>
-    <t>201400079</t>
+    <t>G201400079</t>
   </si>
   <si>
     <t>201400082</t>
@@ -118,7 +118,7 @@
     <t>201400103</t>
   </si>
   <si>
-    <t>201400106</t>
+    <t>G201400106</t>
   </si>
   <si>
     <t>201400109</t>
@@ -130,7 +130,7 @@
     <t>201400048</t>
   </si>
   <si>
-    <t>201400051</t>
+    <t>G201400051</t>
   </si>
   <si>
     <t>201400054</t>
@@ -145,10 +145,10 @@
     <t>201400063</t>
   </si>
   <si>
-    <t>201400066</t>
-  </si>
-  <si>
-    <t>201400069</t>
+    <t>G201400066</t>
+  </si>
+  <si>
+    <t>G201400069</t>
   </si>
   <si>
     <t>G201400000</t>
@@ -175,10 +175,10 @@
     <t>201400021</t>
   </si>
   <si>
-    <t>201400024</t>
-  </si>
-  <si>
-    <t>201400027</t>
+    <t>G201400024</t>
+  </si>
+  <si>
+    <t>G201400027</t>
   </si>
   <si>
     <t>201400030</t>
@@ -199,7 +199,7 @@
     <t>201400230</t>
   </si>
   <si>
-    <t>G201400233</t>
+    <t>201400233</t>
   </si>
   <si>
     <t>201400205</t>
@@ -220,7 +220,7 @@
     <t>201400220</t>
   </si>
   <si>
-    <t>G201400223</t>
+    <t>201400223</t>
   </si>
   <si>
     <t>201400226</t>
@@ -229,16 +229,16 @@
     <t>201400229</t>
   </si>
   <si>
-    <t>G201400250</t>
-  </si>
-  <si>
-    <t>G201400235</t>
+    <t>201400250</t>
+  </si>
+  <si>
+    <t>201400235</t>
   </si>
   <si>
     <t>201400238</t>
   </si>
   <si>
-    <t>G201400241</t>
+    <t>201400241</t>
   </si>
   <si>
     <t>201400244</t>
@@ -253,7 +253,7 @@
     <t>201400185</t>
   </si>
   <si>
-    <t>201400188</t>
+    <t>G201400188</t>
   </si>
   <si>
     <t>201400191</t>
@@ -265,19 +265,19 @@
     <t>201400197</t>
   </si>
   <si>
-    <t>201400200</t>
-  </si>
-  <si>
-    <t>G201400203</t>
-  </si>
-  <si>
-    <t>G201400145</t>
-  </si>
-  <si>
-    <t>201400148</t>
-  </si>
-  <si>
-    <t>201400151</t>
+    <t>G201400200</t>
+  </si>
+  <si>
+    <t>201400203</t>
+  </si>
+  <si>
+    <t>201400145</t>
+  </si>
+  <si>
+    <t>G201400148</t>
+  </si>
+  <si>
+    <t>G201400151</t>
   </si>
   <si>
     <t>201400154</t>
@@ -310,7 +310,7 @@
     <t>201400181</t>
   </si>
   <si>
-    <t>G201400111</t>
+    <t>201400111</t>
   </si>
   <si>
     <t>201400114</t>
@@ -343,16 +343,16 @@
     <t>G201400141</t>
   </si>
   <si>
-    <t>201400144</t>
+    <t>G201400144</t>
   </si>
   <si>
     <t>201400071</t>
   </si>
   <si>
-    <t>201400074</t>
-  </si>
-  <si>
-    <t>201400077</t>
+    <t>G201400074</t>
+  </si>
+  <si>
+    <t>G201400077</t>
   </si>
   <si>
     <t>201400080</t>
@@ -370,16 +370,16 @@
     <t>201400092</t>
   </si>
   <si>
-    <t>201400095</t>
+    <t>G201400095</t>
   </si>
   <si>
     <t>201400098</t>
   </si>
   <si>
-    <t>201400101</t>
-  </si>
-  <si>
-    <t>201400104</t>
+    <t>G201400101</t>
+  </si>
+  <si>
+    <t>G201400104</t>
   </si>
   <si>
     <t>201400107</t>
@@ -388,7 +388,7 @@
     <t>201400046</t>
   </si>
   <si>
-    <t>201400049</t>
+    <t>G201400049</t>
   </si>
   <si>
     <t>201400052</t>
@@ -409,7 +409,7 @@
     <t>201400067</t>
   </si>
   <si>
-    <t>201400001</t>
+    <t>G201400001</t>
   </si>
   <si>
     <t>201400004</t>
@@ -421,7 +421,7 @@
     <t>201400010</t>
   </si>
   <si>
-    <t>G201400013</t>
+    <t>201400013</t>
   </si>
   <si>
     <t>201400016</t>
@@ -445,10 +445,10 @@
     <t>201400034</t>
   </si>
   <si>
-    <t>201400037</t>
-  </si>
-  <si>
-    <t>G201400040</t>
+    <t>G201400037</t>
+  </si>
+  <si>
+    <t>201400040</t>
   </si>
   <si>
     <t>201400043</t>
@@ -457,7 +457,7 @@
     <t>201400231</t>
   </si>
   <si>
-    <t>G201400234</t>
+    <t>201400234</t>
   </si>
   <si>
     <t>201400206</t>
@@ -466,7 +466,7 @@
     <t>201400209</t>
   </si>
   <si>
-    <t>G201400212</t>
+    <t>201400212</t>
   </si>
   <si>
     <t>201400215</t>
@@ -484,7 +484,7 @@
     <t>201400227</t>
   </si>
   <si>
-    <t>G201400236</t>
+    <t>201400236</t>
   </si>
   <si>
     <t>201400239</t>
@@ -493,7 +493,7 @@
     <t>201400242</t>
   </si>
   <si>
-    <t>G201400245</t>
+    <t>201400245</t>
   </si>
   <si>
     <t>G201400248</t>
@@ -508,34 +508,34 @@
     <t>201400189</t>
   </si>
   <si>
-    <t>G201400192</t>
+    <t>201400192</t>
   </si>
   <si>
     <t>201400195</t>
   </si>
   <si>
-    <t>201400198</t>
-  </si>
-  <si>
-    <t>201400201</t>
-  </si>
-  <si>
-    <t>201400204</t>
-  </si>
-  <si>
-    <t>G201400146</t>
-  </si>
-  <si>
-    <t>G201400149</t>
+    <t>G201400198</t>
+  </si>
+  <si>
+    <t>G201400201</t>
+  </si>
+  <si>
+    <t>G201400204</t>
+  </si>
+  <si>
+    <t>201400146</t>
+  </si>
+  <si>
+    <t>201400149</t>
   </si>
   <si>
     <t>201400152</t>
   </si>
   <si>
-    <t>G201400155</t>
-  </si>
-  <si>
-    <t>G201400158</t>
+    <t>201400155</t>
+  </si>
+  <si>
+    <t>201400158</t>
   </si>
   <si>
     <t>201400161</t>
@@ -553,7 +553,7 @@
     <t>201400173</t>
   </si>
   <si>
-    <t>201400176</t>
+    <t>G201400176</t>
   </si>
   <si>
     <t>201400179</t>
@@ -562,10 +562,10 @@
     <t>201400112</t>
   </si>
   <si>
-    <t>G201400115</t>
-  </si>
-  <si>
-    <t>G201400118</t>
+    <t>201400115</t>
+  </si>
+  <si>
+    <t>201400118</t>
   </si>
   <si>
     <t>201400121</t>
@@ -574,10 +574,10 @@
     <t>201400124</t>
   </si>
   <si>
-    <t>G201400127</t>
-  </si>
-  <si>
-    <t>G201400130</t>
+    <t>201400127</t>
+  </si>
+  <si>
+    <t>201400130</t>
   </si>
   <si>
     <t>201400133</t>
@@ -589,7 +589,7 @@
     <t>201400139</t>
   </si>
   <si>
-    <t>G201400142</t>
+    <t>201400142</t>
   </si>
   <si>
     <t>201400072</t>
@@ -601,7 +601,7 @@
     <t>201400078</t>
   </si>
   <si>
-    <t>G201400081</t>
+    <t>201400081</t>
   </si>
   <si>
     <t>201400084</t>
@@ -616,7 +616,7 @@
     <t>201400093</t>
   </si>
   <si>
-    <t>201400096</t>
+    <t>G201400096</t>
   </si>
   <si>
     <t>201400099</t>
@@ -628,7 +628,7 @@
     <t>201400105</t>
   </si>
   <si>
-    <t>G201400108</t>
+    <t>201400108</t>
   </si>
   <si>
     <t>201400047</t>
@@ -649,7 +649,7 @@
     <t>201400062</t>
   </si>
   <si>
-    <t>G201400065</t>
+    <t>201400065</t>
   </si>
   <si>
     <t>201400068</t>
@@ -667,7 +667,7 @@
     <t>201400011</t>
   </si>
   <si>
-    <t>201400014</t>
+    <t>G201400014</t>
   </si>
   <si>
     <t>201400017</t>
@@ -682,16 +682,16 @@
     <t>201400026</t>
   </si>
   <si>
-    <t>G201400029</t>
-  </si>
-  <si>
-    <t>G201400032</t>
-  </si>
-  <si>
-    <t>201400035</t>
-  </si>
-  <si>
-    <t>G201400038</t>
+    <t>201400029</t>
+  </si>
+  <si>
+    <t>201400032</t>
+  </si>
+  <si>
+    <t>G201400035</t>
+  </si>
+  <si>
+    <t>201400038</t>
   </si>
   <si>
     <t>201400041</t>
@@ -700,10 +700,10 @@
     <t>201400044</t>
   </si>
   <si>
-    <t>G201400232</t>
-  </si>
-  <si>
-    <t>G201400207</t>
+    <t>201400232</t>
+  </si>
+  <si>
+    <t>201400207</t>
   </si>
   <si>
     <t>201400210</t>
@@ -715,13 +715,13 @@
     <t>201400216</t>
   </si>
   <si>
-    <t>201400219</t>
-  </si>
-  <si>
-    <t>G201400222</t>
-  </si>
-  <si>
-    <t>G201400225</t>
+    <t>G201400219</t>
+  </si>
+  <si>
+    <t>201400222</t>
+  </si>
+  <si>
+    <t>201400225</t>
   </si>
   <si>
     <t>201400228</t>
@@ -733,13 +733,13 @@
     <t>201400240</t>
   </si>
   <si>
-    <t>201400243</t>
+    <t>G201400243</t>
   </si>
   <si>
     <t>201400246</t>
   </si>
   <si>
-    <t>G201400249</t>
+    <t>201400249</t>
   </si>
   <si>
     <t>201400184</t>
@@ -754,10 +754,10 @@
     <t>201400193</t>
   </si>
   <si>
-    <t>201400196</t>
-  </si>
-  <si>
-    <t>201400199</t>
+    <t>G201400196</t>
+  </si>
+  <si>
+    <t>G201400199</t>
   </si>
   <si>
     <t>201400202</t>
@@ -769,7 +769,7 @@
     <t>201400150</t>
   </si>
   <si>
-    <t>201400153</t>
+    <t>G201400153</t>
   </si>
   <si>
     <t>201400156</t>
@@ -790,13 +790,13 @@
     <t>201400171</t>
   </si>
   <si>
-    <t>201400174</t>
+    <t>G201400174</t>
   </si>
   <si>
     <t>201400177</t>
   </si>
   <si>
-    <t>201400180</t>
+    <t>G201400180</t>
   </si>
   <si>
     <t>Test Student 201400110</t>
@@ -844,7 +844,7 @@
     <t>Test Student 201400076</t>
   </si>
   <si>
-    <t>Test Student 201400079</t>
+    <t>Test Student G201400079</t>
   </si>
   <si>
     <t>Test Student 201400082</t>
@@ -871,7 +871,7 @@
     <t>Test Student 201400103</t>
   </si>
   <si>
-    <t>Test Student 201400106</t>
+    <t>Test Student G201400106</t>
   </si>
   <si>
     <t>Test Student 201400109</t>
@@ -883,7 +883,7 @@
     <t>Test Student 201400048</t>
   </si>
   <si>
-    <t>Test Student 201400051</t>
+    <t>Test Student G201400051</t>
   </si>
   <si>
     <t>Test Student 201400054</t>
@@ -898,10 +898,10 @@
     <t>Test Student 201400063</t>
   </si>
   <si>
-    <t>Test Student 201400066</t>
-  </si>
-  <si>
-    <t>Test Student 201400069</t>
+    <t>Test Student G201400066</t>
+  </si>
+  <si>
+    <t>Test Student G201400069</t>
   </si>
   <si>
     <t>Test Student G201400000</t>
@@ -928,10 +928,10 @@
     <t>Test Student 201400021</t>
   </si>
   <si>
-    <t>Test Student 201400024</t>
-  </si>
-  <si>
-    <t>Test Student 201400027</t>
+    <t>Test Student G201400024</t>
+  </si>
+  <si>
+    <t>Test Student G201400027</t>
   </si>
   <si>
     <t>Test Student 201400030</t>
@@ -952,7 +952,7 @@
     <t>Test Student 201400230</t>
   </si>
   <si>
-    <t>Test Student G201400233</t>
+    <t>Test Student 201400233</t>
   </si>
   <si>
     <t>Test Student 201400205</t>
@@ -973,7 +973,7 @@
     <t>Test Student 201400220</t>
   </si>
   <si>
-    <t>Test Student G201400223</t>
+    <t>Test Student 201400223</t>
   </si>
   <si>
     <t>Test Student 201400226</t>
@@ -982,16 +982,16 @@
     <t>Test Student 201400229</t>
   </si>
   <si>
-    <t>Test Student G201400250</t>
-  </si>
-  <si>
-    <t>Test Student G201400235</t>
+    <t>Test Student 201400250</t>
+  </si>
+  <si>
+    <t>Test Student 201400235</t>
   </si>
   <si>
     <t>Test Student 201400238</t>
   </si>
   <si>
-    <t>Test Student G201400241</t>
+    <t>Test Student 201400241</t>
   </si>
   <si>
     <t>Test Student 201400244</t>
@@ -1006,7 +1006,7 @@
     <t>Test Student 201400185</t>
   </si>
   <si>
-    <t>Test Student 201400188</t>
+    <t>Test Student G201400188</t>
   </si>
   <si>
     <t>Test Student 201400191</t>
@@ -1018,19 +1018,19 @@
     <t>Test Student 201400197</t>
   </si>
   <si>
-    <t>Test Student 201400200</t>
-  </si>
-  <si>
-    <t>Test Student G201400203</t>
-  </si>
-  <si>
-    <t>Test Student G201400145</t>
-  </si>
-  <si>
-    <t>Test Student 201400148</t>
-  </si>
-  <si>
-    <t>Test Student 201400151</t>
+    <t>Test Student G201400200</t>
+  </si>
+  <si>
+    <t>Test Student 201400203</t>
+  </si>
+  <si>
+    <t>Test Student 201400145</t>
+  </si>
+  <si>
+    <t>Test Student G201400148</t>
+  </si>
+  <si>
+    <t>Test Student G201400151</t>
   </si>
   <si>
     <t>Test Student 201400154</t>
@@ -1063,7 +1063,7 @@
     <t>Test Student 201400181</t>
   </si>
   <si>
-    <t>Test Student G201400111</t>
+    <t>Test Student 201400111</t>
   </si>
   <si>
     <t>Test Student 201400114</t>
@@ -1096,16 +1096,16 @@
     <t>Test Student G201400141</t>
   </si>
   <si>
-    <t>Test Student 201400144</t>
+    <t>Test Student G201400144</t>
   </si>
   <si>
     <t>Test Student 201400071</t>
   </si>
   <si>
-    <t>Test Student 201400074</t>
-  </si>
-  <si>
-    <t>Test Student 201400077</t>
+    <t>Test Student G201400074</t>
+  </si>
+  <si>
+    <t>Test Student G201400077</t>
   </si>
   <si>
     <t>Test Student 201400080</t>
@@ -1123,16 +1123,16 @@
     <t>Test Student 201400092</t>
   </si>
   <si>
-    <t>Test Student 201400095</t>
+    <t>Test Student G201400095</t>
   </si>
   <si>
     <t>Test Student 201400098</t>
   </si>
   <si>
-    <t>Test Student 201400101</t>
-  </si>
-  <si>
-    <t>Test Student 201400104</t>
+    <t>Test Student G201400101</t>
+  </si>
+  <si>
+    <t>Test Student G201400104</t>
   </si>
   <si>
     <t>Test Student 201400107</t>
@@ -1141,7 +1141,7 @@
     <t>Test Student 201400046</t>
   </si>
   <si>
-    <t>Test Student 201400049</t>
+    <t>Test Student G201400049</t>
   </si>
   <si>
     <t>Test Student 201400052</t>
@@ -1162,7 +1162,7 @@
     <t>Test Student 201400067</t>
   </si>
   <si>
-    <t>Test Student 201400001</t>
+    <t>Test Student G201400001</t>
   </si>
   <si>
     <t>Test Student 201400004</t>
@@ -1174,7 +1174,7 @@
     <t>Test Student 201400010</t>
   </si>
   <si>
-    <t>Test Student G201400013</t>
+    <t>Test Student 201400013</t>
   </si>
   <si>
     <t>Test Student 201400016</t>
@@ -1198,10 +1198,10 @@
     <t>Test Student 201400034</t>
   </si>
   <si>
-    <t>Test Student 201400037</t>
-  </si>
-  <si>
-    <t>Test Student G201400040</t>
+    <t>Test Student G201400037</t>
+  </si>
+  <si>
+    <t>Test Student 201400040</t>
   </si>
   <si>
     <t>Test Student 201400043</t>
@@ -1210,7 +1210,7 @@
     <t>Test Student 201400231</t>
   </si>
   <si>
-    <t>Test Student G201400234</t>
+    <t>Test Student 201400234</t>
   </si>
   <si>
     <t>Test Student 201400206</t>
@@ -1219,7 +1219,7 @@
     <t>Test Student 201400209</t>
   </si>
   <si>
-    <t>Test Student G201400212</t>
+    <t>Test Student 201400212</t>
   </si>
   <si>
     <t>Test Student 201400215</t>
@@ -1237,7 +1237,7 @@
     <t>Test Student 201400227</t>
   </si>
   <si>
-    <t>Test Student G201400236</t>
+    <t>Test Student 201400236</t>
   </si>
   <si>
     <t>Test Student 201400239</t>
@@ -1246,7 +1246,7 @@
     <t>Test Student 201400242</t>
   </si>
   <si>
-    <t>Test Student G201400245</t>
+    <t>Test Student 201400245</t>
   </si>
   <si>
     <t>Test Student G201400248</t>
@@ -1261,34 +1261,34 @@
     <t>Test Student 201400189</t>
   </si>
   <si>
-    <t>Test Student G201400192</t>
+    <t>Test Student 201400192</t>
   </si>
   <si>
     <t>Test Student 201400195</t>
   </si>
   <si>
-    <t>Test Student 201400198</t>
-  </si>
-  <si>
-    <t>Test Student 201400201</t>
-  </si>
-  <si>
-    <t>Test Student 201400204</t>
-  </si>
-  <si>
-    <t>Test Student G201400146</t>
-  </si>
-  <si>
-    <t>Test Student G201400149</t>
+    <t>Test Student G201400198</t>
+  </si>
+  <si>
+    <t>Test Student G201400201</t>
+  </si>
+  <si>
+    <t>Test Student G201400204</t>
+  </si>
+  <si>
+    <t>Test Student 201400146</t>
+  </si>
+  <si>
+    <t>Test Student 201400149</t>
   </si>
   <si>
     <t>Test Student 201400152</t>
   </si>
   <si>
-    <t>Test Student G201400155</t>
-  </si>
-  <si>
-    <t>Test Student G201400158</t>
+    <t>Test Student 201400155</t>
+  </si>
+  <si>
+    <t>Test Student 201400158</t>
   </si>
   <si>
     <t>Test Student 201400161</t>
@@ -1306,7 +1306,7 @@
     <t>Test Student 201400173</t>
   </si>
   <si>
-    <t>Test Student 201400176</t>
+    <t>Test Student G201400176</t>
   </si>
   <si>
     <t>Test Student 201400179</t>
@@ -1315,10 +1315,10 @@
     <t>Test Student 201400112</t>
   </si>
   <si>
-    <t>Test Student G201400115</t>
-  </si>
-  <si>
-    <t>Test Student G201400118</t>
+    <t>Test Student 201400115</t>
+  </si>
+  <si>
+    <t>Test Student 201400118</t>
   </si>
   <si>
     <t>Test Student 201400121</t>
@@ -1327,10 +1327,10 @@
     <t>Test Student 201400124</t>
   </si>
   <si>
-    <t>Test Student G201400127</t>
-  </si>
-  <si>
-    <t>Test Student G201400130</t>
+    <t>Test Student 201400127</t>
+  </si>
+  <si>
+    <t>Test Student 201400130</t>
   </si>
   <si>
     <t>Test Student 201400133</t>
@@ -1342,7 +1342,7 @@
     <t>Test Student 201400139</t>
   </si>
   <si>
-    <t>Test Student G201400142</t>
+    <t>Test Student 201400142</t>
   </si>
   <si>
     <t>Test Student 201400072</t>
@@ -1354,7 +1354,7 @@
     <t>Test Student 201400078</t>
   </si>
   <si>
-    <t>Test Student G201400081</t>
+    <t>Test Student 201400081</t>
   </si>
   <si>
     <t>Test Student 201400084</t>
@@ -1369,7 +1369,7 @@
     <t>Test Student 201400093</t>
   </si>
   <si>
-    <t>Test Student 201400096</t>
+    <t>Test Student G201400096</t>
   </si>
   <si>
     <t>Test Student 201400099</t>
@@ -1381,7 +1381,7 @@
     <t>Test Student 201400105</t>
   </si>
   <si>
-    <t>Test Student G201400108</t>
+    <t>Test Student 201400108</t>
   </si>
   <si>
     <t>Test Student 201400047</t>
@@ -1402,7 +1402,7 @@
     <t>Test Student 201400062</t>
   </si>
   <si>
-    <t>Test Student G201400065</t>
+    <t>Test Student 201400065</t>
   </si>
   <si>
     <t>Test Student 201400068</t>
@@ -1420,7 +1420,7 @@
     <t>Test Student 201400011</t>
   </si>
   <si>
-    <t>Test Student 201400014</t>
+    <t>Test Student G201400014</t>
   </si>
   <si>
     <t>Test Student 201400017</t>
@@ -1435,16 +1435,16 @@
     <t>Test Student 201400026</t>
   </si>
   <si>
-    <t>Test Student G201400029</t>
-  </si>
-  <si>
-    <t>Test Student G201400032</t>
-  </si>
-  <si>
-    <t>Test Student 201400035</t>
-  </si>
-  <si>
-    <t>Test Student G201400038</t>
+    <t>Test Student 201400029</t>
+  </si>
+  <si>
+    <t>Test Student 201400032</t>
+  </si>
+  <si>
+    <t>Test Student G201400035</t>
+  </si>
+  <si>
+    <t>Test Student 201400038</t>
   </si>
   <si>
     <t>Test Student 201400041</t>
@@ -1453,10 +1453,10 @@
     <t>Test Student 201400044</t>
   </si>
   <si>
-    <t>Test Student G201400232</t>
-  </si>
-  <si>
-    <t>Test Student G201400207</t>
+    <t>Test Student 201400232</t>
+  </si>
+  <si>
+    <t>Test Student 201400207</t>
   </si>
   <si>
     <t>Test Student 201400210</t>
@@ -1468,13 +1468,13 @@
     <t>Test Student 201400216</t>
   </si>
   <si>
-    <t>Test Student 201400219</t>
-  </si>
-  <si>
-    <t>Test Student G201400222</t>
-  </si>
-  <si>
-    <t>Test Student G201400225</t>
+    <t>Test Student G201400219</t>
+  </si>
+  <si>
+    <t>Test Student 201400222</t>
+  </si>
+  <si>
+    <t>Test Student 201400225</t>
   </si>
   <si>
     <t>Test Student 201400228</t>
@@ -1486,13 +1486,13 @@
     <t>Test Student 201400240</t>
   </si>
   <si>
-    <t>Test Student 201400243</t>
+    <t>Test Student G201400243</t>
   </si>
   <si>
     <t>Test Student 201400246</t>
   </si>
   <si>
-    <t>Test Student G201400249</t>
+    <t>Test Student 201400249</t>
   </si>
   <si>
     <t>Test Student 201400184</t>
@@ -1507,10 +1507,10 @@
     <t>Test Student 201400193</t>
   </si>
   <si>
-    <t>Test Student 201400196</t>
-  </si>
-  <si>
-    <t>Test Student 201400199</t>
+    <t>Test Student G201400196</t>
+  </si>
+  <si>
+    <t>Test Student G201400199</t>
   </si>
   <si>
     <t>Test Student 201400202</t>
@@ -1522,7 +1522,7 @@
     <t>Test Student 201400150</t>
   </si>
   <si>
-    <t>Test Student 201400153</t>
+    <t>Test Student G201400153</t>
   </si>
   <si>
     <t>Test Student 201400156</t>
@@ -1543,13 +1543,13 @@
     <t>Test Student 201400171</t>
   </si>
   <si>
-    <t>Test Student 201400174</t>
+    <t>Test Student G201400174</t>
   </si>
   <si>
     <t>Test Student 201400177</t>
   </si>
   <si>
-    <t>Test Student 201400180</t>
+    <t>Test Student G201400180</t>
   </si>
   <si>
     <t>College of Business</t>
@@ -1576,36 +1576,36 @@
     <t>2014-2015 Summer</t>
   </si>
   <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
     <t>Management</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>Accounting</t>
+    <t>Mechanical Engineering</t>
   </si>
   <si>
     <t>Electrical Engineering</t>
   </si>
   <si>
-    <t>Mechanical Engineering</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
     <t>Civil Engineering</t>
   </si>
   <si>
+    <t>Surgery</t>
+  </si>
+  <si>
     <t>Pediatrics</t>
   </si>
   <si>
-    <t>Surgery</t>
-  </si>
-  <si>
     <t>Medicine</t>
   </si>
   <si>
@@ -1615,469 +1615,595 @@
     <t>Pharmaceutical Sciences</t>
   </si>
   <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
     <t>Chemistry</t>
   </si>
   <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
+    <t xml:space="preserve"> Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employed</t>
+  </si>
+  <si>
+    <t>BUSINESS OWNER</t>
+  </si>
+  <si>
     <t>Employed</t>
   </si>
   <si>
+    <t xml:space="preserve"> Studying</t>
+  </si>
+  <si>
+    <t>Business OWNER</t>
+  </si>
+  <si>
     <t>New graduate</t>
   </si>
   <si>
-    <t>Business owner</t>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Employed  </t>
+  </si>
+  <si>
+    <t>New Graduate</t>
+  </si>
+  <si>
+    <t>EMPLOYED</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Left The Country</t>
+  </si>
+  <si>
+    <t>new graduate</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business Owner</t>
+  </si>
+  <si>
+    <t>Passed Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New graduate </t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>STUDYING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Owner </t>
+  </si>
+  <si>
+    <t>left the country</t>
+  </si>
+  <si>
+    <t>studying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t>UNEMPLOYED</t>
+  </si>
+  <si>
+    <t>eMpLoYeD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployed </t>
+  </si>
+  <si>
+    <t>Employed - Add to List</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>do not contact</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>NEW GRADUATE</t>
+  </si>
+  <si>
+    <t>business owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employed </t>
   </si>
   <si>
     <t>Studying</t>
   </si>
   <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
+    <t>Do Not Contact</t>
+  </si>
+  <si>
+    <t>DO NOT CONTACT</t>
+  </si>
+  <si>
+    <t>UnEmPlOyEd</t>
+  </si>
+  <si>
+    <t>LEFT THE COUNTRY</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New graduate</t>
+  </si>
+  <si>
+    <t>Do Not CONTACT</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
+    <t>Test Company 19</t>
+  </si>
+  <si>
+    <t>Test Company 7</t>
+  </si>
+  <si>
+    <t>Test Company 27</t>
+  </si>
+  <si>
+    <t>Test Company 20</t>
+  </si>
+  <si>
+    <t>Test Company 99</t>
+  </si>
+  <si>
+    <t>Test Company 32</t>
+  </si>
+  <si>
+    <t>Test Company 5</t>
+  </si>
+  <si>
+    <t>Test Company 51</t>
+  </si>
+  <si>
+    <t>Test Company 9</t>
+  </si>
+  <si>
+    <t>Test Company 24</t>
+  </si>
+  <si>
+    <t>Test Company 79</t>
+  </si>
+  <si>
+    <t>Test Company 54</t>
+  </si>
+  <si>
+    <t>Test Company 76</t>
+  </si>
+  <si>
+    <t>Test Company 31</t>
+  </si>
+  <si>
+    <t>Test Company 97</t>
+  </si>
+  <si>
+    <t>Test Company 55</t>
+  </si>
+  <si>
+    <t>Test Company 71</t>
+  </si>
+  <si>
+    <t>Test Company 13</t>
+  </si>
+  <si>
+    <t>Test Company 25</t>
+  </si>
+  <si>
+    <t>Test Company 30</t>
+  </si>
+  <si>
+    <t>Test Company 52</t>
+  </si>
+  <si>
+    <t>Test Company 80</t>
+  </si>
+  <si>
+    <t>Test Company 70</t>
+  </si>
+  <si>
+    <t>Test Company 90</t>
+  </si>
+  <si>
+    <t>Test Company 65</t>
+  </si>
+  <si>
+    <t>Test Company 22</t>
+  </si>
+  <si>
+    <t>Test Company 36</t>
+  </si>
+  <si>
+    <t>Test Company 69</t>
+  </si>
+  <si>
+    <t>Test Company 4</t>
+  </si>
+  <si>
+    <t>Test Company 48</t>
+  </si>
+  <si>
+    <t>Test Company 88</t>
+  </si>
+  <si>
+    <t>Test Company 59</t>
+  </si>
+  <si>
+    <t>Test Company 8</t>
+  </si>
+  <si>
+    <t>Test Company 38</t>
+  </si>
+  <si>
+    <t>Test Company 84</t>
+  </si>
+  <si>
+    <t>Test Company 73</t>
+  </si>
+  <si>
+    <t>Test Company 96</t>
+  </si>
+  <si>
+    <t>Test Company 35</t>
+  </si>
+  <si>
+    <t>Test Company 50</t>
+  </si>
+  <si>
+    <t>Test Company 81</t>
+  </si>
+  <si>
+    <t>Test Company 60</t>
+  </si>
+  <si>
+    <t>Test Company 67</t>
+  </si>
+  <si>
+    <t>Test Company 12</t>
+  </si>
+  <si>
+    <t>Test Company 17</t>
+  </si>
+  <si>
+    <t>Test Company 82</t>
+  </si>
+  <si>
+    <t>Test Company 56</t>
+  </si>
+  <si>
+    <t>Test Company 29</t>
+  </si>
+  <si>
+    <t>Test Company 86</t>
+  </si>
+  <si>
+    <t>Test Company 95</t>
+  </si>
+  <si>
+    <t>Test Company 18</t>
+  </si>
+  <si>
+    <t>Test Company 78</t>
+  </si>
+  <si>
+    <t>Test Company 66</t>
+  </si>
+  <si>
+    <t>Test Company 21</t>
+  </si>
+  <si>
+    <t>Test Company 87</t>
+  </si>
+  <si>
+    <t>Test Company 93</t>
+  </si>
+  <si>
+    <t>Test Company 77</t>
+  </si>
+  <si>
+    <t>Test Company 10</t>
+  </si>
+  <si>
+    <t>Test Company 34</t>
+  </si>
+  <si>
+    <t>Test Company 42</t>
+  </si>
+  <si>
+    <t>Test Company 85</t>
+  </si>
+  <si>
+    <t>Test Company 39</t>
+  </si>
+  <si>
+    <t>Test Company 15</t>
+  </si>
+  <si>
+    <t>Test Company 89</t>
+  </si>
+  <si>
+    <t>Test Company 46</t>
+  </si>
+  <si>
+    <t>Test Company 75</t>
+  </si>
+  <si>
+    <t>Test Company 61</t>
+  </si>
+  <si>
+    <t>Test Company 2</t>
+  </si>
+  <si>
+    <t>Test Company 68</t>
+  </si>
+  <si>
+    <t>Test Company 62</t>
+  </si>
+  <si>
+    <t>Test Company 33</t>
+  </si>
+  <si>
+    <t>Test Company 98</t>
+  </si>
+  <si>
+    <t>Test Company 11</t>
+  </si>
+  <si>
+    <t>Test Company 47</t>
+  </si>
+  <si>
+    <t>Test Company 16</t>
+  </si>
+  <si>
+    <t>Test Company 6</t>
+  </si>
+  <si>
+    <t>Test Company 91</t>
+  </si>
+  <si>
+    <t>Test Company 43</t>
+  </si>
+  <si>
+    <t>Test Company 41</t>
   </si>
   <si>
     <t>Test Company 100</t>
   </si>
   <si>
-    <t>Test Company 34</t>
+    <t>Test Company 37</t>
+  </si>
+  <si>
+    <t>Test Company 28</t>
   </si>
   <si>
     <t>Test Company 1</t>
   </si>
   <si>
-    <t>Test Company 65</t>
+    <t>Test Company 53</t>
+  </si>
+  <si>
+    <t>Test Company 3</t>
+  </si>
+  <si>
+    <t>Test Company 83</t>
+  </si>
+  <si>
+    <t>Test Company 45</t>
+  </si>
+  <si>
+    <t>Test Company 94</t>
+  </si>
+  <si>
+    <t>Test Company 49</t>
+  </si>
+  <si>
+    <t>Test Company 44</t>
+  </si>
+  <si>
+    <t>Test Company 23</t>
+  </si>
+  <si>
+    <t>Test Company 40</t>
   </si>
   <si>
     <t>Test Company 26</t>
   </si>
   <si>
-    <t>Test Company 97</t>
-  </si>
-  <si>
-    <t>Test Company 24</t>
-  </si>
-  <si>
-    <t>Test Company 54</t>
-  </si>
-  <si>
-    <t>Test Company 81</t>
-  </si>
-  <si>
-    <t>Test Company 28</t>
-  </si>
-  <si>
-    <t>Test Company 3</t>
-  </si>
-  <si>
-    <t>Test Company 50</t>
-  </si>
-  <si>
-    <t>Test Company 7</t>
-  </si>
-  <si>
-    <t>Test Company 16</t>
-  </si>
-  <si>
-    <t>Test Company 62</t>
-  </si>
-  <si>
-    <t>Test Company 48</t>
-  </si>
-  <si>
-    <t>Test Company 89</t>
-  </si>
-  <si>
-    <t>Test Company 92</t>
-  </si>
-  <si>
-    <t>Test Company 78</t>
-  </si>
-  <si>
-    <t>Test Company 68</t>
-  </si>
-  <si>
-    <t>Test Company 75</t>
-  </si>
-  <si>
-    <t>Test Company 44</t>
-  </si>
-  <si>
-    <t>Test Company 22</t>
-  </si>
-  <si>
-    <t>Test Company 66</t>
-  </si>
-  <si>
-    <t>Test Company 13</t>
-  </si>
-  <si>
-    <t>Test Company 4</t>
-  </si>
-  <si>
-    <t>Test Company 61</t>
-  </si>
-  <si>
-    <t>Test Company 25</t>
-  </si>
-  <si>
-    <t>Test Company 6</t>
-  </si>
-  <si>
-    <t>Test Company 20</t>
-  </si>
-  <si>
-    <t>Test Company 23</t>
-  </si>
-  <si>
-    <t>Test Company 27</t>
-  </si>
-  <si>
-    <t>Test Company 15</t>
-  </si>
-  <si>
-    <t>Test Company 56</t>
-  </si>
-  <si>
-    <t>Test Company 43</t>
-  </si>
-  <si>
-    <t>Test Company 21</t>
-  </si>
-  <si>
-    <t>Test Company 45</t>
-  </si>
-  <si>
-    <t>Test Company 80</t>
-  </si>
-  <si>
-    <t>Test Company 46</t>
-  </si>
-  <si>
-    <t>Test Company 98</t>
-  </si>
-  <si>
-    <t>Test Company 33</t>
-  </si>
-  <si>
-    <t>Test Company 99</t>
-  </si>
-  <si>
-    <t>Test Company 2</t>
-  </si>
-  <si>
-    <t>Test Company 73</t>
-  </si>
-  <si>
-    <t>Test Company 42</t>
-  </si>
-  <si>
-    <t>Test Company 85</t>
-  </si>
-  <si>
-    <t>Test Company 30</t>
-  </si>
-  <si>
-    <t>Test Company 36</t>
-  </si>
-  <si>
-    <t>Test Company 5</t>
-  </si>
-  <si>
-    <t>Test Company 69</t>
-  </si>
-  <si>
-    <t>Test Company 96</t>
-  </si>
-  <si>
-    <t>Test Company 41</t>
-  </si>
-  <si>
-    <t>Test Company 63</t>
-  </si>
-  <si>
-    <t>Test Company 95</t>
-  </si>
-  <si>
-    <t>Test Company 53</t>
-  </si>
-  <si>
-    <t>Test Company 52</t>
-  </si>
-  <si>
-    <t>Test Company 84</t>
-  </si>
-  <si>
-    <t>Test Company 82</t>
-  </si>
-  <si>
-    <t>Test Company 59</t>
-  </si>
-  <si>
-    <t>Test Company 47</t>
-  </si>
-  <si>
-    <t>Test Company 19</t>
-  </si>
-  <si>
-    <t>Test Company 9</t>
-  </si>
-  <si>
-    <t>Test Company 83</t>
-  </si>
-  <si>
-    <t>Test Company 72</t>
-  </si>
-  <si>
-    <t>Test Company 55</t>
-  </si>
-  <si>
-    <t>Test Company 76</t>
-  </si>
-  <si>
-    <t>Test Company 14</t>
-  </si>
-  <si>
-    <t>Test Company 32</t>
-  </si>
-  <si>
-    <t>Test Company 58</t>
-  </si>
-  <si>
-    <t>Test Company 91</t>
-  </si>
-  <si>
-    <t>Test Company 60</t>
-  </si>
-  <si>
-    <t>Test Company 70</t>
-  </si>
-  <si>
-    <t>Test Company 11</t>
-  </si>
-  <si>
-    <t>Test Company 29</t>
-  </si>
-  <si>
-    <t>Test Company 17</t>
-  </si>
-  <si>
-    <t>Test Company 8</t>
-  </si>
-  <si>
-    <t>Test Company 31</t>
-  </si>
-  <si>
-    <t>Test Company 77</t>
+    <t>Test Company 74</t>
   </si>
   <si>
     <t>Test Company 64</t>
   </si>
   <si>
-    <t>Test Company 86</t>
-  </si>
-  <si>
-    <t>Test Company 71</t>
-  </si>
-  <si>
-    <t>Test Company 49</t>
-  </si>
-  <si>
-    <t>Test Company 37</t>
-  </si>
-  <si>
-    <t>Test Company 12</t>
-  </si>
-  <si>
-    <t>Test Company 74</t>
-  </si>
-  <si>
-    <t>Test Company 88</t>
-  </si>
-  <si>
-    <t>Test Company 90</t>
-  </si>
-  <si>
-    <t>Test Company 79</t>
-  </si>
-  <si>
-    <t>Test Company 18</t>
-  </si>
-  <si>
-    <t>Test Company 57</t>
-  </si>
-  <si>
-    <t>Test Company 38</t>
-  </si>
-  <si>
-    <t>Test Company 93</t>
-  </si>
-  <si>
-    <t>Test Company 40</t>
+    <t>Test Position 43</t>
+  </si>
+  <si>
+    <t>Test Position 8</t>
+  </si>
+  <si>
+    <t>Test Position 33</t>
+  </si>
+  <si>
+    <t>Test Position 35</t>
+  </si>
+  <si>
+    <t>Test Position 16</t>
+  </si>
+  <si>
+    <t>Test Position 40</t>
+  </si>
+  <si>
+    <t>Test Position 36</t>
+  </si>
+  <si>
+    <t>Test Position 31</t>
+  </si>
+  <si>
+    <t>Test Position 18</t>
+  </si>
+  <si>
+    <t>Test Position 41</t>
+  </si>
+  <si>
+    <t>Test Position 44</t>
+  </si>
+  <si>
+    <t>Test Position 14</t>
+  </si>
+  <si>
+    <t>Test Position 11</t>
+  </si>
+  <si>
+    <t>Test Position 26</t>
+  </si>
+  <si>
+    <t>Test Position 28</t>
+  </si>
+  <si>
+    <t>Test Position 17</t>
+  </si>
+  <si>
+    <t>Test Position 47</t>
+  </si>
+  <si>
+    <t>Test Position 45</t>
+  </si>
+  <si>
+    <t>Test Position 27</t>
+  </si>
+  <si>
+    <t>Test Position 5</t>
+  </si>
+  <si>
+    <t>Test Position 2</t>
+  </si>
+  <si>
+    <t>Test Position 46</t>
+  </si>
+  <si>
+    <t>Test Position 3</t>
+  </si>
+  <si>
+    <t>Test Position 32</t>
+  </si>
+  <si>
+    <t>Test Position 24</t>
+  </si>
+  <si>
+    <t>Test Position 30</t>
+  </si>
+  <si>
+    <t>Test Position 29</t>
   </si>
   <si>
     <t>Test Position 22</t>
   </si>
   <si>
-    <t>Test Position 18</t>
-  </si>
-  <si>
-    <t>Test Position 36</t>
+    <t>Test Position 20</t>
+  </si>
+  <si>
+    <t>Test Position 34</t>
   </si>
   <si>
     <t>Test Position 49</t>
   </si>
   <si>
+    <t>Test Position 25</t>
+  </si>
+  <si>
+    <t>Test Position 42</t>
+  </si>
+  <si>
+    <t>Test Position 7</t>
+  </si>
+  <si>
+    <t>Test Position 37</t>
+  </si>
+  <si>
+    <t>Test Position 19</t>
+  </si>
+  <si>
+    <t>Test Position 13</t>
+  </si>
+  <si>
+    <t>Test Position 9</t>
+  </si>
+  <si>
+    <t>Test Position 4</t>
+  </si>
+  <si>
+    <t>Test Position 12</t>
+  </si>
+  <si>
+    <t>Test Position 6</t>
+  </si>
+  <si>
+    <t>Test Position 38</t>
+  </si>
+  <si>
+    <t>Test Position 23</t>
+  </si>
+  <si>
+    <t>Test Position 21</t>
+  </si>
+  <si>
+    <t>Test Position 50</t>
+  </si>
+  <si>
+    <t>Test Position 10</t>
+  </si>
+  <si>
+    <t>Test Position 48</t>
+  </si>
+  <si>
+    <t>Test Position 15</t>
+  </si>
+  <si>
+    <t>Test Position 1</t>
+  </si>
+  <si>
     <t>Test Position 39</t>
-  </si>
-  <si>
-    <t>Test Position 9</t>
-  </si>
-  <si>
-    <t>Test Position 48</t>
-  </si>
-  <si>
-    <t>Test Position 12</t>
-  </si>
-  <si>
-    <t>Test Position 5</t>
-  </si>
-  <si>
-    <t>Test Position 42</t>
-  </si>
-  <si>
-    <t>Test Position 14</t>
-  </si>
-  <si>
-    <t>Test Position 16</t>
-  </si>
-  <si>
-    <t>Test Position 6</t>
-  </si>
-  <si>
-    <t>Test Position 10</t>
-  </si>
-  <si>
-    <t>Test Position 45</t>
-  </si>
-  <si>
-    <t>Test Position 37</t>
-  </si>
-  <si>
-    <t>Test Position 7</t>
-  </si>
-  <si>
-    <t>Test Position 50</t>
-  </si>
-  <si>
-    <t>Test Position 43</t>
-  </si>
-  <si>
-    <t>Test Position 13</t>
-  </si>
-  <si>
-    <t>Test Position 2</t>
-  </si>
-  <si>
-    <t>Test Position 32</t>
-  </si>
-  <si>
-    <t>Test Position 11</t>
-  </si>
-  <si>
-    <t>Test Position 31</t>
-  </si>
-  <si>
-    <t>Test Position 47</t>
-  </si>
-  <si>
-    <t>Test Position 33</t>
-  </si>
-  <si>
-    <t>Test Position 34</t>
-  </si>
-  <si>
-    <t>Test Position 44</t>
-  </si>
-  <si>
-    <t>Test Position 8</t>
-  </si>
-  <si>
-    <t>Test Position 1</t>
-  </si>
-  <si>
-    <t>Test Position 27</t>
-  </si>
-  <si>
-    <t>Test Position 29</t>
-  </si>
-  <si>
-    <t>Test Position 20</t>
-  </si>
-  <si>
-    <t>Test Position 40</t>
-  </si>
-  <si>
-    <t>Test Position 46</t>
-  </si>
-  <si>
-    <t>Test Position 21</t>
-  </si>
-  <si>
-    <t>Test Position 41</t>
-  </si>
-  <si>
-    <t>Test Position 24</t>
-  </si>
-  <si>
-    <t>Test Position 17</t>
-  </si>
-  <si>
-    <t>Test Position 25</t>
-  </si>
-  <si>
-    <t>Test Position 35</t>
-  </si>
-  <si>
-    <t>Test Position 26</t>
-  </si>
-  <si>
-    <t>Test Position 38</t>
-  </si>
-  <si>
-    <t>Test Position 19</t>
-  </si>
-  <si>
-    <t>Test Position 28</t>
-  </si>
-  <si>
-    <t>Test Position 4</t>
-  </si>
-  <si>
-    <t>Test Position 23</t>
-  </si>
-  <si>
-    <t>Test Position 15</t>
-  </si>
-  <si>
-    <t>Test Position 30</t>
-  </si>
-  <si>
-    <t>Test Position 3</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
@@ -2502,13 +2628,13 @@
         <v>539</v>
       </c>
       <c r="H2" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="I2" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="J2" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2534,13 +2660,13 @@
         <v>540</v>
       </c>
       <c r="H3" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="I3" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="J3" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2566,13 +2692,13 @@
         <v>541</v>
       </c>
       <c r="H4" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="I4" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
       <c r="J4" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2595,16 +2721,16 @@
         <v>537</v>
       </c>
       <c r="G5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H5" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="I5" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="J5" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2621,22 +2747,22 @@
         <v>517</v>
       </c>
       <c r="E6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F6" t="s">
         <v>537</v>
       </c>
       <c r="G6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H6" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="J6" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2653,22 +2779,22 @@
         <v>517</v>
       </c>
       <c r="E7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F7" t="s">
         <v>537</v>
       </c>
       <c r="G7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H7" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="I7" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="J7" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2685,22 +2811,22 @@
         <v>517</v>
       </c>
       <c r="E8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F8" t="s">
         <v>537</v>
       </c>
       <c r="G8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H8" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="I8" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="J8" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2717,22 +2843,22 @@
         <v>517</v>
       </c>
       <c r="E9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F9" t="s">
         <v>537</v>
       </c>
       <c r="G9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="I9" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
       <c r="J9" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2749,22 +2875,22 @@
         <v>517</v>
       </c>
       <c r="E10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F10" t="s">
         <v>537</v>
       </c>
       <c r="G10" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H10" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="I10" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="J10" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2781,22 +2907,22 @@
         <v>517</v>
       </c>
       <c r="E11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F11" t="s">
         <v>537</v>
       </c>
       <c r="G11" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H11" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="I11" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="J11" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2813,22 +2939,22 @@
         <v>517</v>
       </c>
       <c r="E12" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F12" t="s">
         <v>537</v>
       </c>
       <c r="G12" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H12" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="I12" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="J12" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2845,22 +2971,22 @@
         <v>517</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F13" t="s">
         <v>537</v>
       </c>
       <c r="G13" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H13" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="I13" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="J13" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2883,16 +3009,16 @@
         <v>538</v>
       </c>
       <c r="G14" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H14" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="I14" t="s">
-        <v>647</v>
+        <v>691</v>
       </c>
       <c r="J14" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2909,22 +3035,22 @@
         <v>517</v>
       </c>
       <c r="E15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
         <v>538</v>
       </c>
       <c r="G15" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="H15" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="I15" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="J15" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2941,22 +3067,22 @@
         <v>517</v>
       </c>
       <c r="E16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F16" t="s">
         <v>538</v>
       </c>
       <c r="G16" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="H16" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="I16" t="s">
-        <v>651</v>
+        <v>692</v>
       </c>
       <c r="J16" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2973,22 +3099,22 @@
         <v>517</v>
       </c>
       <c r="E17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
         <v>538</v>
       </c>
       <c r="G17" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="H17" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="I17" t="s">
-        <v>652</v>
+        <v>693</v>
       </c>
       <c r="J17" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3005,22 +3131,22 @@
         <v>517</v>
       </c>
       <c r="E18" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
         <v>538</v>
       </c>
       <c r="G18" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="H18" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="I18" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="J18" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3043,16 +3169,16 @@
         <v>538</v>
       </c>
       <c r="G19" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="H19" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="I19" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="J19" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3075,16 +3201,16 @@
         <v>538</v>
       </c>
       <c r="G20" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="H20" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="I20" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="J20" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3101,22 +3227,22 @@
         <v>517</v>
       </c>
       <c r="E21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F21" t="s">
         <v>538</v>
       </c>
       <c r="G21" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H21" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="I21" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="J21" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3133,22 +3259,22 @@
         <v>517</v>
       </c>
       <c r="E22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F22" t="s">
         <v>538</v>
       </c>
       <c r="G22" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H22" t="s">
-        <v>549</v>
+        <v>603</v>
       </c>
       <c r="I22" t="s">
-        <v>656</v>
+        <v>694</v>
       </c>
       <c r="J22" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3165,22 +3291,22 @@
         <v>517</v>
       </c>
       <c r="E23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F23" t="s">
         <v>538</v>
       </c>
       <c r="G23" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="H23" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
       <c r="I23" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="J23" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3197,22 +3323,22 @@
         <v>517</v>
       </c>
       <c r="E24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F24" t="s">
         <v>538</v>
       </c>
       <c r="G24" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="H24" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="I24" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="J24" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3229,22 +3355,22 @@
         <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F25" t="s">
         <v>538</v>
       </c>
       <c r="G25" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="H25" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="I25" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="J25" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3261,22 +3387,22 @@
         <v>517</v>
       </c>
       <c r="E26" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F26" t="s">
         <v>538</v>
       </c>
       <c r="G26" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H26" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="I26" t="s">
-        <v>645</v>
+        <v>697</v>
       </c>
       <c r="J26" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3293,22 +3419,22 @@
         <v>517</v>
       </c>
       <c r="E27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F27" t="s">
         <v>538</v>
       </c>
       <c r="G27" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="H27" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="I27" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="J27" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3331,16 +3457,16 @@
         <v>537</v>
       </c>
       <c r="G28" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H28" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="I28" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="J28" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3357,22 +3483,22 @@
         <v>517</v>
       </c>
       <c r="E29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F29" t="s">
         <v>537</v>
       </c>
       <c r="G29" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H29" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="I29" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
       <c r="J29" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3389,22 +3515,22 @@
         <v>517</v>
       </c>
       <c r="E30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F30" t="s">
         <v>537</v>
       </c>
       <c r="G30" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="H30" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="I30" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
       <c r="J30" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3421,22 +3547,22 @@
         <v>517</v>
       </c>
       <c r="E31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F31" t="s">
         <v>537</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="H31" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="I31" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="J31" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3453,22 +3579,22 @@
         <v>517</v>
       </c>
       <c r="E32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F32" t="s">
         <v>537</v>
       </c>
       <c r="G32" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H32" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="I32" t="s">
-        <v>659</v>
+        <v>703</v>
       </c>
       <c r="J32" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3485,22 +3611,22 @@
         <v>517</v>
       </c>
       <c r="E33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F33" t="s">
         <v>537</v>
       </c>
       <c r="G33" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="I33" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="J33" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3517,22 +3643,22 @@
         <v>517</v>
       </c>
       <c r="E34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F34" t="s">
         <v>537</v>
       </c>
       <c r="G34" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="H34" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="I34" t="s">
-        <v>664</v>
+        <v>705</v>
       </c>
       <c r="J34" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3549,22 +3675,22 @@
         <v>517</v>
       </c>
       <c r="E35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F35" t="s">
         <v>537</v>
       </c>
       <c r="G35" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="H35" t="s">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="I35" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="J35" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3587,16 +3713,16 @@
         <v>537</v>
       </c>
       <c r="G36" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>616</v>
       </c>
       <c r="I36" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="J36" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3613,22 +3739,22 @@
         <v>517</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F37" t="s">
         <v>538</v>
       </c>
       <c r="G37" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="H37" t="s">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="I37" t="s">
-        <v>655</v>
+        <v>706</v>
       </c>
       <c r="J37" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3645,22 +3771,22 @@
         <v>517</v>
       </c>
       <c r="E38" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F38" t="s">
         <v>538</v>
       </c>
       <c r="G38" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H38" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="I38" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="J38" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3683,16 +3809,16 @@
         <v>538</v>
       </c>
       <c r="G39" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="I39" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="J39" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3709,22 +3835,22 @@
         <v>517</v>
       </c>
       <c r="E40" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F40" t="s">
         <v>538</v>
       </c>
       <c r="G40" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="I40" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="J40" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3741,22 +3867,22 @@
         <v>517</v>
       </c>
       <c r="E41" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F41" t="s">
         <v>538</v>
       </c>
       <c r="G41" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="H41" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="I41" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="J41" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3779,16 +3905,16 @@
         <v>538</v>
       </c>
       <c r="G42" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H42" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="I42" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="J42" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3805,22 +3931,22 @@
         <v>517</v>
       </c>
       <c r="E43" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F43" t="s">
         <v>538</v>
       </c>
       <c r="G43" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H43" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="I43" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="J43" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3843,16 +3969,16 @@
         <v>538</v>
       </c>
       <c r="G44" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="H44" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="I44" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="J44" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3875,16 +4001,16 @@
         <v>538</v>
       </c>
       <c r="G45" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="H45" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="I45" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="J45" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3901,22 +4027,22 @@
         <v>517</v>
       </c>
       <c r="E46" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F46" t="s">
         <v>538</v>
       </c>
       <c r="G46" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="H46" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="I46" t="s">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="J46" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3933,22 +4059,22 @@
         <v>517</v>
       </c>
       <c r="E47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F47" t="s">
         <v>538</v>
       </c>
       <c r="G47" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="H47" t="s">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="I47" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="J47" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3971,16 +4097,16 @@
         <v>538</v>
       </c>
       <c r="G48" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="I48" t="s">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="J48" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4003,16 +4129,16 @@
         <v>538</v>
       </c>
       <c r="G49" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="H49" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="I49" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="J49" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4029,22 +4155,22 @@
         <v>517</v>
       </c>
       <c r="E50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F50" t="s">
         <v>538</v>
       </c>
       <c r="G50" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="H50" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="I50" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="J50" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4061,22 +4187,22 @@
         <v>517</v>
       </c>
       <c r="E51" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F51" t="s">
         <v>538</v>
       </c>
       <c r="G51" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="H51" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="I51" t="s">
-        <v>649</v>
+        <v>712</v>
       </c>
       <c r="J51" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4099,16 +4225,16 @@
         <v>537</v>
       </c>
       <c r="G52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H52" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="J52" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4125,22 +4251,22 @@
         <v>517</v>
       </c>
       <c r="E53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F53" t="s">
         <v>537</v>
       </c>
       <c r="G53" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="H53" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="I53" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="J53" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4157,22 +4283,22 @@
         <v>517</v>
       </c>
       <c r="E54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F54" t="s">
         <v>538</v>
       </c>
       <c r="G54" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="H54" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
       <c r="I54" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="J54" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4189,22 +4315,22 @@
         <v>517</v>
       </c>
       <c r="E55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F55" t="s">
         <v>538</v>
       </c>
       <c r="G55" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="H55" t="s">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="I55" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="J55" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4221,22 +4347,22 @@
         <v>517</v>
       </c>
       <c r="E56" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F56" t="s">
         <v>538</v>
       </c>
       <c r="G56" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H56" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="I56" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="J56" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4253,22 +4379,22 @@
         <v>517</v>
       </c>
       <c r="E57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F57" t="s">
         <v>538</v>
       </c>
       <c r="G57" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H57" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="I57" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="J57" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4291,16 +4417,16 @@
         <v>538</v>
       </c>
       <c r="G58" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H58" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="I58" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="J58" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4317,22 +4443,22 @@
         <v>517</v>
       </c>
       <c r="E59" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F59" t="s">
         <v>538</v>
       </c>
       <c r="G59" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H59" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="I59" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="J59" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4355,16 +4481,16 @@
         <v>538</v>
       </c>
       <c r="G60" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="H60" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="I60" t="s">
-        <v>648</v>
+        <v>713</v>
       </c>
       <c r="J60" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4387,16 +4513,16 @@
         <v>538</v>
       </c>
       <c r="G61" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="H61" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="I61" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="J61" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4413,22 +4539,22 @@
         <v>517</v>
       </c>
       <c r="E62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F62" t="s">
         <v>538</v>
       </c>
       <c r="G62" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="H62" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="I62" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="J62" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4451,16 +4577,16 @@
         <v>537</v>
       </c>
       <c r="G63" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="I63" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="J63" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4483,16 +4609,16 @@
         <v>538</v>
       </c>
       <c r="G64" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="H64" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="I64" t="s">
-        <v>677</v>
+        <v>715</v>
       </c>
       <c r="J64" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4509,22 +4635,22 @@
         <v>517</v>
       </c>
       <c r="E65" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F65" t="s">
         <v>538</v>
       </c>
       <c r="G65" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="H65" t="s">
-        <v>578</v>
+        <v>634</v>
       </c>
       <c r="I65" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="J65" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4547,16 +4673,16 @@
         <v>538</v>
       </c>
       <c r="G66" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H66" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="I66" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="J66" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4579,16 +4705,16 @@
         <v>538</v>
       </c>
       <c r="G67" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="I67" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="J67" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4611,16 +4737,16 @@
         <v>538</v>
       </c>
       <c r="G68" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="H68" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="I68" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="J68" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4643,16 +4769,16 @@
         <v>537</v>
       </c>
       <c r="G69" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="H69" t="s">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="I69" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="J69" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4675,16 +4801,16 @@
         <v>537</v>
       </c>
       <c r="G70" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H70" t="s">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c r="I70" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="J70" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4701,22 +4827,22 @@
         <v>517</v>
       </c>
       <c r="E71" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F71" t="s">
         <v>537</v>
       </c>
       <c r="G71" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="H71" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="I71" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="J71" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4733,22 +4859,22 @@
         <v>517</v>
       </c>
       <c r="E72" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F72" t="s">
         <v>537</v>
       </c>
       <c r="G72" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H72" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I72" t="s">
-        <v>646</v>
+        <v>717</v>
       </c>
       <c r="J72" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4771,16 +4897,16 @@
         <v>537</v>
       </c>
       <c r="G73" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="H73" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="I73" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="J73" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4797,22 +4923,22 @@
         <v>517</v>
       </c>
       <c r="E74" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F74" t="s">
         <v>537</v>
       </c>
       <c r="G74" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="H74" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="I74" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="J74" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4829,22 +4955,22 @@
         <v>517</v>
       </c>
       <c r="E75" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F75" t="s">
         <v>537</v>
       </c>
       <c r="G75" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H75" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I75" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="J75" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4867,16 +4993,16 @@
         <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="H76" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="I76" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="J76" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4893,22 +5019,22 @@
         <v>517</v>
       </c>
       <c r="E77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F77" t="s">
         <v>538</v>
       </c>
       <c r="G77" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H77" t="s">
         <v>596</v>
       </c>
       <c r="I77" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="J77" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4931,16 +5057,16 @@
         <v>538</v>
       </c>
       <c r="G78" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="H78" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="I78" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="J78" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4963,16 +5089,16 @@
         <v>538</v>
       </c>
       <c r="G79" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H79" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="I79" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="J79" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4989,22 +5115,22 @@
         <v>517</v>
       </c>
       <c r="E80" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F80" t="s">
         <v>538</v>
       </c>
       <c r="G80" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="H80" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="I80" t="s">
-        <v>647</v>
+        <v>708</v>
       </c>
       <c r="J80" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5021,22 +5147,22 @@
         <v>517</v>
       </c>
       <c r="E81" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F81" t="s">
         <v>538</v>
       </c>
       <c r="G81" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="H81" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I81" t="s">
-        <v>659</v>
+        <v>703</v>
       </c>
       <c r="J81" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5053,22 +5179,22 @@
         <v>517</v>
       </c>
       <c r="E82" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F82" t="s">
         <v>538</v>
       </c>
       <c r="G82" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="H82" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="I82" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
       <c r="J82" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5091,16 +5217,16 @@
         <v>538</v>
       </c>
       <c r="G83" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="H83" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="I83" t="s">
-        <v>669</v>
+        <v>713</v>
       </c>
       <c r="J83" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5117,22 +5243,22 @@
         <v>517</v>
       </c>
       <c r="E84" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F84" t="s">
         <v>538</v>
       </c>
       <c r="G84" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="I84" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="J84" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5149,22 +5275,22 @@
         <v>517</v>
       </c>
       <c r="E85" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F85" t="s">
         <v>538</v>
       </c>
       <c r="G85" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="H85" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="I85" t="s">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="J85" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5181,7 +5307,7 @@
         <v>517</v>
       </c>
       <c r="E86" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F86" t="s">
         <v>538</v>
@@ -5190,13 +5316,13 @@
         <v>542</v>
       </c>
       <c r="H86" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I86" t="s">
-        <v>666</v>
+        <v>720</v>
       </c>
       <c r="J86" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5219,16 +5345,16 @@
         <v>538</v>
       </c>
       <c r="G87" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="H87" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I87" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="J87" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5245,22 +5371,22 @@
         <v>517</v>
       </c>
       <c r="E88" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F88" t="s">
         <v>538</v>
       </c>
       <c r="G88" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="H88" t="s">
         <v>603</v>
       </c>
       <c r="I88" t="s">
-        <v>656</v>
+        <v>715</v>
       </c>
       <c r="J88" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5277,22 +5403,22 @@
         <v>517</v>
       </c>
       <c r="E89" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F89" t="s">
         <v>538</v>
       </c>
       <c r="G89" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="H89" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
       <c r="I89" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="J89" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5309,22 +5435,22 @@
         <v>518</v>
       </c>
       <c r="E90" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F90" t="s">
         <v>537</v>
       </c>
       <c r="G90" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="H90" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="I90" t="s">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="J90" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5341,22 +5467,22 @@
         <v>518</v>
       </c>
       <c r="E91" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F91" t="s">
         <v>537</v>
       </c>
       <c r="G91" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="H91" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="I91" t="s">
-        <v>649</v>
+        <v>718</v>
       </c>
       <c r="J91" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5379,16 +5505,16 @@
         <v>537</v>
       </c>
       <c r="G92" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="H92" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="I92" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="J92" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5405,22 +5531,22 @@
         <v>518</v>
       </c>
       <c r="E93" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F93" t="s">
         <v>537</v>
       </c>
       <c r="G93" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="H93" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="I93" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="J93" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5437,22 +5563,22 @@
         <v>518</v>
       </c>
       <c r="E94" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F94" t="s">
         <v>537</v>
       </c>
       <c r="G94" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="H94" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="I94" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="J94" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5469,22 +5595,22 @@
         <v>518</v>
       </c>
       <c r="E95" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F95" t="s">
         <v>537</v>
       </c>
       <c r="G95" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="H95" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="I95" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="J95" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5501,22 +5627,22 @@
         <v>518</v>
       </c>
       <c r="E96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F96" t="s">
         <v>537</v>
       </c>
       <c r="G96" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="H96" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="I96" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="J96" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -5533,22 +5659,22 @@
         <v>518</v>
       </c>
       <c r="E97" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F97" t="s">
         <v>537</v>
       </c>
       <c r="G97" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H97" t="s">
-        <v>550</v>
+        <v>648</v>
       </c>
       <c r="I97" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J97" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -5565,22 +5691,22 @@
         <v>518</v>
       </c>
       <c r="E98" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F98" t="s">
         <v>537</v>
       </c>
       <c r="G98" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="H98" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I98" t="s">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="J98" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -5597,22 +5723,22 @@
         <v>518</v>
       </c>
       <c r="E99" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F99" t="s">
         <v>537</v>
       </c>
       <c r="G99" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="H99" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="I99" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="J99" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -5629,22 +5755,22 @@
         <v>518</v>
       </c>
       <c r="E100" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F100" t="s">
         <v>537</v>
       </c>
       <c r="G100" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="H100" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="I100" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="J100" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5661,22 +5787,22 @@
         <v>518</v>
       </c>
       <c r="E101" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F101" t="s">
         <v>537</v>
       </c>
       <c r="G101" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="H101" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="I101" t="s">
-        <v>682</v>
+        <v>723</v>
       </c>
       <c r="J101" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5693,22 +5819,22 @@
         <v>518</v>
       </c>
       <c r="E102" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F102" t="s">
         <v>538</v>
       </c>
       <c r="G102" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="H102" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="I102" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="J102" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5725,22 +5851,22 @@
         <v>518</v>
       </c>
       <c r="E103" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F103" t="s">
         <v>538</v>
       </c>
       <c r="G103" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="H103" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="I103" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="J103" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5763,16 +5889,16 @@
         <v>538</v>
       </c>
       <c r="G104" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="H104" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="I104" t="s">
-        <v>654</v>
+        <v>722</v>
       </c>
       <c r="J104" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5789,22 +5915,22 @@
         <v>518</v>
       </c>
       <c r="E105" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F105" t="s">
         <v>538</v>
       </c>
       <c r="G105" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H105" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="I105" t="s">
-        <v>643</v>
+        <v>704</v>
       </c>
       <c r="J105" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5821,22 +5947,22 @@
         <v>518</v>
       </c>
       <c r="E106" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F106" t="s">
         <v>538</v>
       </c>
       <c r="G106" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H106" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="I106" t="s">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="J106" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5853,22 +5979,22 @@
         <v>518</v>
       </c>
       <c r="E107" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F107" t="s">
         <v>538</v>
       </c>
       <c r="G107" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="H107" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="I107" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J107" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5891,16 +6017,16 @@
         <v>538</v>
       </c>
       <c r="G108" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H108" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="I108" t="s">
-        <v>646</v>
+        <v>717</v>
       </c>
       <c r="J108" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5917,22 +6043,22 @@
         <v>518</v>
       </c>
       <c r="E109" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F109" t="s">
         <v>538</v>
       </c>
       <c r="G109" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="H109" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="I109" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
       <c r="J109" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5949,22 +6075,22 @@
         <v>518</v>
       </c>
       <c r="E110" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F110" t="s">
         <v>538</v>
       </c>
       <c r="G110" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="H110" t="s">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="I110" t="s">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="J110" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5987,16 +6113,16 @@
         <v>538</v>
       </c>
       <c r="G111" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="H111" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="I111" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="J111" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6013,22 +6139,22 @@
         <v>518</v>
       </c>
       <c r="E112" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F112" t="s">
         <v>538</v>
       </c>
       <c r="G112" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="H112" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="I112" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="J112" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -6051,16 +6177,16 @@
         <v>538</v>
       </c>
       <c r="G113" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="H113" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="I113" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="J113" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -6083,16 +6209,16 @@
         <v>538</v>
       </c>
       <c r="G114" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H114" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
       <c r="I114" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="J114" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -6109,22 +6235,22 @@
         <v>518</v>
       </c>
       <c r="E115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F115" t="s">
         <v>537</v>
       </c>
       <c r="G115" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="H115" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="I115" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="J115" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -6141,22 +6267,22 @@
         <v>518</v>
       </c>
       <c r="E116" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F116" t="s">
         <v>537</v>
       </c>
       <c r="G116" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="H116" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="I116" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="J116" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -6179,16 +6305,16 @@
         <v>537</v>
       </c>
       <c r="G117" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="H117" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="I117" t="s">
-        <v>646</v>
+        <v>700</v>
       </c>
       <c r="J117" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -6211,16 +6337,16 @@
         <v>537</v>
       </c>
       <c r="G118" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="H118" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="I118" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="J118" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6237,22 +6363,22 @@
         <v>518</v>
       </c>
       <c r="E119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F119" t="s">
         <v>537</v>
       </c>
       <c r="G119" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="H119" t="s">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="I119" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="J119" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6275,16 +6401,16 @@
         <v>537</v>
       </c>
       <c r="G120" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="H120" t="s">
-        <v>545</v>
+        <v>657</v>
       </c>
       <c r="I120" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="J120" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6301,22 +6427,22 @@
         <v>518</v>
       </c>
       <c r="E121" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F121" t="s">
         <v>537</v>
       </c>
       <c r="G121" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="H121" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="I121" t="s">
-        <v>662</v>
+        <v>721</v>
       </c>
       <c r="J121" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6333,22 +6459,22 @@
         <v>518</v>
       </c>
       <c r="E122" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F122" t="s">
         <v>537</v>
       </c>
       <c r="G122" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="H122" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="I122" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="J122" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6371,16 +6497,16 @@
         <v>538</v>
       </c>
       <c r="G123" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H123" t="s">
-        <v>560</v>
+        <v>651</v>
       </c>
       <c r="I123" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="J123" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6397,22 +6523,22 @@
         <v>518</v>
       </c>
       <c r="E124" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F124" t="s">
         <v>538</v>
       </c>
       <c r="G124" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H124" t="s">
-        <v>560</v>
+        <v>658</v>
       </c>
       <c r="I124" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="J124" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6429,22 +6555,22 @@
         <v>518</v>
       </c>
       <c r="E125" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F125" t="s">
         <v>538</v>
       </c>
       <c r="G125" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="H125" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I125" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="J125" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -6461,22 +6587,22 @@
         <v>518</v>
       </c>
       <c r="E126" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F126" t="s">
         <v>538</v>
       </c>
       <c r="G126" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H126" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="I126" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="J126" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6493,22 +6619,22 @@
         <v>518</v>
       </c>
       <c r="E127" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F127" t="s">
         <v>538</v>
       </c>
       <c r="G127" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="H127" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="I127" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
       <c r="J127" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6525,22 +6651,22 @@
         <v>518</v>
       </c>
       <c r="E128" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F128" t="s">
         <v>538</v>
       </c>
       <c r="G128" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="H128" t="s">
-        <v>552</v>
+        <v>660</v>
       </c>
       <c r="I128" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
       <c r="J128" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -6563,16 +6689,16 @@
         <v>538</v>
       </c>
       <c r="G129" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="H129" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="I129" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="J129" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -6589,22 +6715,22 @@
         <v>518</v>
       </c>
       <c r="E130" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F130" t="s">
         <v>538</v>
       </c>
       <c r="G130" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H130" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="I130" t="s">
-        <v>648</v>
+        <v>698</v>
       </c>
       <c r="J130" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -6621,22 +6747,22 @@
         <v>518</v>
       </c>
       <c r="E131" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F131" t="s">
         <v>538</v>
       </c>
       <c r="G131" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="H131" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="I131" t="s">
-        <v>646</v>
+        <v>717</v>
       </c>
       <c r="J131" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -6659,16 +6785,16 @@
         <v>538</v>
       </c>
       <c r="G132" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H132" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="I132" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="J132" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -6685,22 +6811,22 @@
         <v>518</v>
       </c>
       <c r="E133" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F133" t="s">
         <v>538</v>
       </c>
       <c r="G133" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="H133" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="I133" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="J133" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -6717,22 +6843,22 @@
         <v>518</v>
       </c>
       <c r="E134" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F134" t="s">
         <v>538</v>
       </c>
       <c r="G134" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="H134" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="I134" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="J134" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -6749,22 +6875,22 @@
         <v>518</v>
       </c>
       <c r="E135" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F135" t="s">
         <v>538</v>
       </c>
       <c r="G135" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H135" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="I135" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="J135" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -6781,22 +6907,22 @@
         <v>518</v>
       </c>
       <c r="E136" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F136" t="s">
         <v>538</v>
       </c>
       <c r="G136" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="H136" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
       <c r="I136" t="s">
-        <v>646</v>
+        <v>707</v>
       </c>
       <c r="J136" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -6813,22 +6939,22 @@
         <v>518</v>
       </c>
       <c r="E137" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F137" t="s">
         <v>538</v>
       </c>
       <c r="G137" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="H137" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="I137" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="J137" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -6845,22 +6971,22 @@
         <v>518</v>
       </c>
       <c r="E138" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F138" t="s">
         <v>537</v>
       </c>
       <c r="G138" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H138" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="I138" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="J138" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -6883,16 +7009,16 @@
         <v>537</v>
       </c>
       <c r="G139" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="H139" t="s">
-        <v>561</v>
+        <v>662</v>
       </c>
       <c r="I139" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="J139" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -6915,16 +7041,16 @@
         <v>538</v>
       </c>
       <c r="G140" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="H140" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="I140" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="J140" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -6941,22 +7067,22 @@
         <v>518</v>
       </c>
       <c r="E141" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F141" t="s">
         <v>538</v>
       </c>
       <c r="G141" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="H141" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
       <c r="I141" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="J141" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -6979,16 +7105,16 @@
         <v>538</v>
       </c>
       <c r="G142" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="H142" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="I142" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="J142" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -7005,22 +7131,22 @@
         <v>518</v>
       </c>
       <c r="E143" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F143" t="s">
         <v>538</v>
       </c>
       <c r="G143" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H143" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="I143" t="s">
-        <v>638</v>
+        <v>685</v>
       </c>
       <c r="J143" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -7043,16 +7169,16 @@
         <v>538</v>
       </c>
       <c r="G144" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="H144" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="I144" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="J144" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -7075,16 +7201,16 @@
         <v>538</v>
       </c>
       <c r="G145" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="H145" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="I145" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="J145" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -7101,22 +7227,22 @@
         <v>518</v>
       </c>
       <c r="E146" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F146" t="s">
         <v>538</v>
       </c>
       <c r="G146" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>664</v>
       </c>
       <c r="I146" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="J146" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -7133,22 +7259,22 @@
         <v>518</v>
       </c>
       <c r="E147" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F147" t="s">
         <v>538</v>
       </c>
       <c r="G147" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="H147" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="I147" t="s">
-        <v>641</v>
+        <v>708</v>
       </c>
       <c r="J147" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7165,22 +7291,22 @@
         <v>518</v>
       </c>
       <c r="E148" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F148" t="s">
         <v>538</v>
       </c>
       <c r="G148" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="H148" t="s">
-        <v>551</v>
+        <v>662</v>
       </c>
       <c r="I148" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J148" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -7197,22 +7323,22 @@
         <v>518</v>
       </c>
       <c r="E149" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F149" t="s">
         <v>538</v>
       </c>
       <c r="G149" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="H149" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="I149" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="J149" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -7229,22 +7355,22 @@
         <v>518</v>
       </c>
       <c r="E150" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F150" t="s">
         <v>538</v>
       </c>
       <c r="G150" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H150" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="I150" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="J150" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -7261,22 +7387,22 @@
         <v>518</v>
       </c>
       <c r="E151" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F151" t="s">
         <v>538</v>
       </c>
       <c r="G151" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H151" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="I151" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="J151" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -7299,16 +7425,16 @@
         <v>538</v>
       </c>
       <c r="G152" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H152" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="I152" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="J152" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -7325,22 +7451,22 @@
         <v>518</v>
       </c>
       <c r="E153" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F153" t="s">
         <v>537</v>
       </c>
       <c r="G153" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="H153" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="I153" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="J153" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -7357,22 +7483,22 @@
         <v>518</v>
       </c>
       <c r="E154" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F154" t="s">
         <v>537</v>
       </c>
       <c r="G154" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H154" t="s">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="I154" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="J154" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -7389,22 +7515,22 @@
         <v>518</v>
       </c>
       <c r="E155" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F155" t="s">
         <v>537</v>
       </c>
       <c r="G155" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H155" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="I155" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="J155" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -7421,22 +7547,22 @@
         <v>518</v>
       </c>
       <c r="E156" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F156" t="s">
         <v>537</v>
       </c>
       <c r="G156" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H156" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="I156" t="s">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="J156" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -7453,22 +7579,22 @@
         <v>518</v>
       </c>
       <c r="E157" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F157" t="s">
         <v>537</v>
       </c>
       <c r="G157" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H157" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="I157" t="s">
-        <v>652</v>
+        <v>714</v>
       </c>
       <c r="J157" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -7485,22 +7611,22 @@
         <v>518</v>
       </c>
       <c r="E158" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F158" t="s">
         <v>537</v>
       </c>
       <c r="G158" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H158" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="I158" t="s">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="J158" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -7517,22 +7643,22 @@
         <v>518</v>
       </c>
       <c r="E159" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F159" t="s">
         <v>537</v>
       </c>
       <c r="G159" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="H159" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="I159" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="J159" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -7549,22 +7675,22 @@
         <v>518</v>
       </c>
       <c r="E160" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F160" t="s">
         <v>537</v>
       </c>
       <c r="G160" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="H160" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="I160" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="J160" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -7581,22 +7707,22 @@
         <v>518</v>
       </c>
       <c r="E161" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F161" t="s">
         <v>538</v>
       </c>
       <c r="G161" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H161" t="s">
-        <v>555</v>
+        <v>659</v>
       </c>
       <c r="I161" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="J161" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -7619,16 +7745,16 @@
         <v>538</v>
       </c>
       <c r="G162" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H162" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="I162" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="J162" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -7645,22 +7771,22 @@
         <v>518</v>
       </c>
       <c r="E163" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F163" t="s">
         <v>538</v>
       </c>
       <c r="G163" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="H163" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="I163" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="J163" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -7683,16 +7809,16 @@
         <v>538</v>
       </c>
       <c r="G164" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="H164" t="s">
-        <v>561</v>
+        <v>647</v>
       </c>
       <c r="I164" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="J164" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -7709,22 +7835,22 @@
         <v>518</v>
       </c>
       <c r="E165" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F165" t="s">
         <v>538</v>
       </c>
       <c r="G165" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H165" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="I165" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="J165" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -7747,16 +7873,16 @@
         <v>538</v>
       </c>
       <c r="G166" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H166" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="I166" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="J166" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -7773,22 +7899,22 @@
         <v>518</v>
       </c>
       <c r="E167" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F167" t="s">
         <v>538</v>
       </c>
       <c r="G167" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="H167" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="I167" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="J167" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -7811,16 +7937,16 @@
         <v>538</v>
       </c>
       <c r="G168" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H168" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="I168" t="s">
-        <v>650</v>
+        <v>712</v>
       </c>
       <c r="J168" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -7837,22 +7963,22 @@
         <v>518</v>
       </c>
       <c r="E169" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F169" t="s">
         <v>538</v>
       </c>
       <c r="G169" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="H169" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="I169" t="s">
-        <v>670</v>
+        <v>721</v>
       </c>
       <c r="J169" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -7875,16 +8001,16 @@
         <v>538</v>
       </c>
       <c r="G170" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="H170" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="I170" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="J170" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -7901,22 +8027,22 @@
         <v>518</v>
       </c>
       <c r="E171" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F171" t="s">
         <v>538</v>
       </c>
       <c r="G171" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="H171" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="I171" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="J171" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -7933,22 +8059,22 @@
         <v>518</v>
       </c>
       <c r="E172" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F172" t="s">
         <v>538</v>
       </c>
       <c r="G172" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="H172" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="I172" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="J172" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -7965,22 +8091,22 @@
         <v>519</v>
       </c>
       <c r="E173" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F173" t="s">
         <v>537</v>
       </c>
       <c r="G173" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H173" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="I173" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="J173" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -7997,22 +8123,22 @@
         <v>519</v>
       </c>
       <c r="E174" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F174" t="s">
         <v>537</v>
       </c>
       <c r="G174" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H174" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="I174" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="J174" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -8029,22 +8155,22 @@
         <v>519</v>
       </c>
       <c r="E175" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F175" t="s">
         <v>537</v>
       </c>
       <c r="G175" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H175" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="I175" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="J175" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -8067,16 +8193,16 @@
         <v>537</v>
       </c>
       <c r="G176" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="H176" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I176" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="J176" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -8093,22 +8219,22 @@
         <v>519</v>
       </c>
       <c r="E177" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F177" t="s">
         <v>537</v>
       </c>
       <c r="G177" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="H177" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="I177" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="J177" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -8131,16 +8257,16 @@
         <v>537</v>
       </c>
       <c r="G178" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H178" t="s">
-        <v>557</v>
+        <v>648</v>
       </c>
       <c r="I178" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="J178" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -8157,22 +8283,22 @@
         <v>519</v>
       </c>
       <c r="E179" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F179" t="s">
         <v>537</v>
       </c>
       <c r="G179" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="H179" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="I179" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="J179" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -8195,16 +8321,16 @@
         <v>537</v>
       </c>
       <c r="G180" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="H180" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="I180" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="J180" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -8227,16 +8353,16 @@
         <v>537</v>
       </c>
       <c r="G181" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="I181" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="J181" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -8253,22 +8379,22 @@
         <v>519</v>
       </c>
       <c r="E182" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F182" t="s">
         <v>537</v>
       </c>
       <c r="G182" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H182" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="I182" t="s">
-        <v>658</v>
+        <v>702</v>
       </c>
       <c r="J182" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -8285,22 +8411,22 @@
         <v>519</v>
       </c>
       <c r="E183" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F183" t="s">
         <v>537</v>
       </c>
       <c r="G183" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="I183" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="J183" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -8323,16 +8449,16 @@
         <v>538</v>
       </c>
       <c r="G184" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="H184" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I184" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="J184" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -8349,22 +8475,22 @@
         <v>519</v>
       </c>
       <c r="E185" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F185" t="s">
         <v>538</v>
       </c>
       <c r="G185" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="H185" t="s">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="I185" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="J185" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -8381,22 +8507,22 @@
         <v>519</v>
       </c>
       <c r="E186" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F186" t="s">
         <v>538</v>
       </c>
       <c r="G186" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="H186" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="I186" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="J186" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -8413,22 +8539,22 @@
         <v>519</v>
       </c>
       <c r="E187" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F187" t="s">
         <v>538</v>
       </c>
       <c r="G187" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H187" t="s">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="I187" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="J187" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -8445,22 +8571,22 @@
         <v>519</v>
       </c>
       <c r="E188" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F188" t="s">
         <v>538</v>
       </c>
       <c r="G188" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="H188" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="I188" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="J188" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -8477,22 +8603,22 @@
         <v>519</v>
       </c>
       <c r="E189" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F189" t="s">
         <v>538</v>
       </c>
       <c r="G189" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="H189" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="I189" t="s">
-        <v>648</v>
+        <v>707</v>
       </c>
       <c r="J189" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -8509,22 +8635,22 @@
         <v>519</v>
       </c>
       <c r="E190" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F190" t="s">
         <v>538</v>
       </c>
       <c r="G190" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="H190" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="I190" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="J190" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -8541,22 +8667,22 @@
         <v>519</v>
       </c>
       <c r="E191" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F191" t="s">
         <v>538</v>
       </c>
       <c r="G191" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="H191" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="I191" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="J191" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -8579,16 +8705,16 @@
         <v>538</v>
       </c>
       <c r="G192" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H192" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="I192" t="s">
-        <v>653</v>
+        <v>721</v>
       </c>
       <c r="J192" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -8605,22 +8731,22 @@
         <v>519</v>
       </c>
       <c r="E193" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F193" t="s">
         <v>538</v>
       </c>
       <c r="G193" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="H193" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="I193" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="J193" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -8643,16 +8769,16 @@
         <v>538</v>
       </c>
       <c r="G194" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="H194" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="I194" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="J194" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -8669,22 +8795,22 @@
         <v>519</v>
       </c>
       <c r="E195" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F195" t="s">
         <v>538</v>
       </c>
       <c r="G195" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="H195" t="s">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="I195" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="J195" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -8701,22 +8827,22 @@
         <v>519</v>
       </c>
       <c r="E196" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F196" t="s">
         <v>538</v>
       </c>
       <c r="G196" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="H196" t="s">
-        <v>550</v>
+        <v>671</v>
       </c>
       <c r="I196" t="s">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="J196" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -8733,22 +8859,22 @@
         <v>519</v>
       </c>
       <c r="E197" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F197" t="s">
         <v>537</v>
       </c>
       <c r="G197" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H197" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="I197" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="J197" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -8765,22 +8891,22 @@
         <v>519</v>
       </c>
       <c r="E198" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F198" t="s">
         <v>537</v>
       </c>
       <c r="G198" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="H198" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="I198" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="J198" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -8797,22 +8923,22 @@
         <v>519</v>
       </c>
       <c r="E199" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F199" t="s">
         <v>537</v>
       </c>
       <c r="G199" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="H199" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="I199" t="s">
-        <v>657</v>
+        <v>723</v>
       </c>
       <c r="J199" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -8829,22 +8955,22 @@
         <v>519</v>
       </c>
       <c r="E200" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F200" t="s">
         <v>537</v>
       </c>
       <c r="G200" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H200" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="I200" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="J200" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -8861,22 +8987,22 @@
         <v>519</v>
       </c>
       <c r="E201" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F201" t="s">
         <v>537</v>
       </c>
       <c r="G201" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H201" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="I201" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="J201" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -8893,22 +9019,22 @@
         <v>519</v>
       </c>
       <c r="E202" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F202" t="s">
         <v>537</v>
       </c>
       <c r="G202" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H202" t="s">
-        <v>548</v>
+        <v>672</v>
       </c>
       <c r="I202" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="J202" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -8931,16 +9057,16 @@
         <v>537</v>
       </c>
       <c r="G203" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="H203" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="I203" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="J203" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -8963,16 +9089,16 @@
         <v>537</v>
       </c>
       <c r="G204" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H204" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="I204" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="J204" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -8995,16 +9121,16 @@
         <v>538</v>
       </c>
       <c r="G205" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="H205" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="I205" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="J205" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -9027,16 +9153,16 @@
         <v>538</v>
       </c>
       <c r="G206" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H206" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="I206" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="J206" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9053,22 +9179,22 @@
         <v>519</v>
       </c>
       <c r="E207" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F207" t="s">
         <v>538</v>
       </c>
       <c r="G207" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="H207" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I207" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="J207" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9091,16 +9217,16 @@
         <v>538</v>
       </c>
       <c r="G208" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="H208" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="I208" t="s">
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="J208" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9123,16 +9249,16 @@
         <v>538</v>
       </c>
       <c r="G209" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="H209" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="I209" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="J209" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -9149,22 +9275,22 @@
         <v>519</v>
       </c>
       <c r="E210" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F210" t="s">
         <v>538</v>
       </c>
       <c r="G210" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="I210" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="J210" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9181,22 +9307,22 @@
         <v>519</v>
       </c>
       <c r="E211" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F211" t="s">
         <v>538</v>
       </c>
       <c r="G211" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H211" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="I211" t="s">
-        <v>646</v>
+        <v>715</v>
       </c>
       <c r="J211" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -9213,22 +9339,22 @@
         <v>519</v>
       </c>
       <c r="E212" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F212" t="s">
         <v>538</v>
       </c>
       <c r="G212" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="H212" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I212" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="J212" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -9251,16 +9377,16 @@
         <v>538</v>
       </c>
       <c r="G213" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="H213" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="I213" t="s">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="J213" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9283,16 +9409,16 @@
         <v>538</v>
       </c>
       <c r="G214" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H214" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="I214" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="J214" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -9309,22 +9435,22 @@
         <v>519</v>
       </c>
       <c r="E215" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F215" t="s">
         <v>538</v>
       </c>
       <c r="G215" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H215" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="I215" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="J215" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9341,22 +9467,22 @@
         <v>519</v>
       </c>
       <c r="E216" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F216" t="s">
         <v>538</v>
       </c>
       <c r="G216" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H216" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I216" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
       <c r="J216" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9379,16 +9505,16 @@
         <v>538</v>
       </c>
       <c r="G217" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="H217" t="s">
-        <v>576</v>
+        <v>673</v>
       </c>
       <c r="I217" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="J217" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -9411,16 +9537,16 @@
         <v>538</v>
       </c>
       <c r="G218" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="H218" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="I218" t="s">
-        <v>654</v>
+        <v>708</v>
       </c>
       <c r="J218" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -9437,22 +9563,22 @@
         <v>519</v>
       </c>
       <c r="E219" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F219" t="s">
         <v>538</v>
       </c>
       <c r="G219" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H219" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="I219" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="J219" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -9469,22 +9595,22 @@
         <v>519</v>
       </c>
       <c r="E220" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F220" t="s">
         <v>537</v>
       </c>
       <c r="G220" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="H220" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="I220" t="s">
-        <v>659</v>
+        <v>703</v>
       </c>
       <c r="J220" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -9501,22 +9627,22 @@
         <v>519</v>
       </c>
       <c r="E221" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F221" t="s">
         <v>538</v>
       </c>
       <c r="G221" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="H221" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I221" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="J221" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -9533,22 +9659,22 @@
         <v>519</v>
       </c>
       <c r="E222" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F222" t="s">
         <v>538</v>
       </c>
       <c r="G222" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H222" t="s">
-        <v>554</v>
+        <v>659</v>
       </c>
       <c r="I222" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="J222" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -9571,16 +9697,16 @@
         <v>538</v>
       </c>
       <c r="G223" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H223" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I223" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="J223" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -9597,22 +9723,22 @@
         <v>519</v>
       </c>
       <c r="E224" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F224" t="s">
         <v>538</v>
       </c>
       <c r="G224" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H224" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I224" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="J224" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -9629,22 +9755,22 @@
         <v>519</v>
       </c>
       <c r="E225" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F225" t="s">
         <v>538</v>
       </c>
       <c r="G225" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H225" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="I225" t="s">
-        <v>673</v>
+        <v>723</v>
       </c>
       <c r="J225" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -9661,22 +9787,22 @@
         <v>519</v>
       </c>
       <c r="E226" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F226" t="s">
         <v>538</v>
       </c>
       <c r="G226" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="H226" t="s">
-        <v>561</v>
+        <v>676</v>
       </c>
       <c r="I226" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="J226" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -9699,16 +9825,16 @@
         <v>538</v>
       </c>
       <c r="G227" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="H227" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="I227" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="J227" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -9725,22 +9851,22 @@
         <v>519</v>
       </c>
       <c r="E228" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F228" t="s">
         <v>538</v>
       </c>
       <c r="G228" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="H228" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="I228" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="J228" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -9757,22 +9883,22 @@
         <v>519</v>
       </c>
       <c r="E229" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F229" t="s">
         <v>538</v>
       </c>
       <c r="G229" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="H229" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
       <c r="I229" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="J229" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -9789,22 +9915,22 @@
         <v>519</v>
       </c>
       <c r="E230" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F230" t="s">
         <v>538</v>
       </c>
       <c r="G230" t="s">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="H230" t="s">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="I230" t="s">
-        <v>640</v>
+        <v>687</v>
       </c>
       <c r="J230" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -9827,16 +9953,16 @@
         <v>538</v>
       </c>
       <c r="G231" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H231" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I231" t="s">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="J231" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -9853,22 +9979,22 @@
         <v>519</v>
       </c>
       <c r="E232" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F232" t="s">
         <v>538</v>
       </c>
       <c r="G232" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="H232" t="s">
-        <v>549</v>
+        <v>637</v>
       </c>
       <c r="I232" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="J232" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -9885,22 +10011,22 @@
         <v>519</v>
       </c>
       <c r="E233" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F233" t="s">
         <v>538</v>
       </c>
       <c r="G233" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H233" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I233" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="J233" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -9917,22 +10043,22 @@
         <v>519</v>
       </c>
       <c r="E234" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F234" t="s">
         <v>537</v>
       </c>
       <c r="G234" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="H234" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="I234" t="s">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="J234" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -9949,22 +10075,22 @@
         <v>519</v>
       </c>
       <c r="E235" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F235" t="s">
         <v>537</v>
       </c>
       <c r="G235" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="H235" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="I235" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="J235" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -9987,16 +10113,16 @@
         <v>537</v>
       </c>
       <c r="G236" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="I236" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="J236" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -10013,22 +10139,22 @@
         <v>519</v>
       </c>
       <c r="E237" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F237" t="s">
         <v>537</v>
       </c>
       <c r="G237" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H237" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="I237" t="s">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="J237" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -10045,22 +10171,22 @@
         <v>519</v>
       </c>
       <c r="E238" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F238" t="s">
         <v>537</v>
       </c>
       <c r="G238" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="H238" t="s">
-        <v>551</v>
+        <v>678</v>
       </c>
       <c r="I238" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="J238" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -10083,16 +10209,16 @@
         <v>537</v>
       </c>
       <c r="G239" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="H239" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="I239" t="s">
-        <v>672</v>
+        <v>713</v>
       </c>
       <c r="J239" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -10109,22 +10235,22 @@
         <v>519</v>
       </c>
       <c r="E240" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F240" t="s">
         <v>537</v>
       </c>
       <c r="G240" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="H240" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="I240" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="J240" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -10141,22 +10267,22 @@
         <v>519</v>
       </c>
       <c r="E241" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F241" t="s">
         <v>538</v>
       </c>
       <c r="G241" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="H241" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="I241" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="J241" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -10173,22 +10299,22 @@
         <v>519</v>
       </c>
       <c r="E242" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F242" t="s">
         <v>538</v>
       </c>
       <c r="G242" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="H242" t="s">
-        <v>551</v>
+        <v>644</v>
       </c>
       <c r="I242" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="J242" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -10211,16 +10337,16 @@
         <v>538</v>
       </c>
       <c r="G243" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H243" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="I243" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="J243" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -10237,22 +10363,22 @@
         <v>519</v>
       </c>
       <c r="E244" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F244" t="s">
         <v>538</v>
       </c>
       <c r="G244" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="H244" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="I244" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="J244" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -10269,22 +10395,22 @@
         <v>519</v>
       </c>
       <c r="E245" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F245" t="s">
         <v>538</v>
       </c>
       <c r="G245" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H245" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="I245" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="J245" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -10301,22 +10427,22 @@
         <v>519</v>
       </c>
       <c r="E246" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F246" t="s">
         <v>538</v>
       </c>
       <c r="G246" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="H246" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I246" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="J246" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10333,22 +10459,22 @@
         <v>519</v>
       </c>
       <c r="E247" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F247" t="s">
         <v>538</v>
       </c>
       <c r="G247" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="H247" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="I247" t="s">
-        <v>665</v>
+        <v>706</v>
       </c>
       <c r="J247" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -10365,22 +10491,22 @@
         <v>519</v>
       </c>
       <c r="E248" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F248" t="s">
         <v>538</v>
       </c>
       <c r="G248" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="H248" t="s">
-        <v>545</v>
+        <v>679</v>
       </c>
       <c r="I248" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
       <c r="J248" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -10397,22 +10523,22 @@
         <v>519</v>
       </c>
       <c r="E249" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F249" t="s">
         <v>538</v>
       </c>
       <c r="G249" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H249" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="I249" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="J249" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -10435,16 +10561,16 @@
         <v>538</v>
       </c>
       <c r="G250" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="H250" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="I250" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="J250" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -10467,16 +10593,16 @@
         <v>538</v>
       </c>
       <c r="G251" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="H251" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="I251" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="J251" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -10493,22 +10619,22 @@
         <v>519</v>
       </c>
       <c r="E252" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F252" t="s">
         <v>538</v>
       </c>
       <c r="G252" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="H252" t="s">
-        <v>579</v>
+        <v>676</v>
       </c>
       <c r="I252" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="J252" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
